--- a/result/with_base/134/arousal/s24_2.xlsx
+++ b/result/with_base/134/arousal/s24_2.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.804999977350235</v>
+        <v>0.8431919515132904</v>
       </c>
       <c r="C2" t="n">
-        <v>41723.255859375</v>
+        <v>11287.9609375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8212499997832559</v>
+        <v>0.8270089275696698</v>
       </c>
       <c r="E2" t="n">
-        <v>41718.40731534091</v>
+        <v>11288.63798253676</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8299999833106995</v>
+        <v>0.8309151828289032</v>
       </c>
       <c r="C3" t="n">
-        <v>40943.23046875</v>
+        <v>10980.41015625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8617045391689647</v>
+        <v>0.8214942216873169</v>
       </c>
       <c r="E3" t="n">
-        <v>40937.67684659091</v>
+        <v>10979.88924632353</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8575000166893005</v>
+        <v>0.8560267984867096</v>
       </c>
       <c r="C4" t="n">
-        <v>40165.083984375</v>
+        <v>10679.8037109375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9002272595058788</v>
+        <v>0.8486081922755522</v>
       </c>
       <c r="E4" t="n">
-        <v>40160.94744318182</v>
+        <v>10679.37385110294</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8725000023841858</v>
+        <v>0.8510044515132904</v>
       </c>
       <c r="C5" t="n">
-        <v>39400.736328125</v>
+        <v>10387.93408203125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9169318296692588</v>
+        <v>0.8498555667260114</v>
       </c>
       <c r="E5" t="n">
-        <v>39396.54190340909</v>
+        <v>10386.7978515625</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8800000250339508</v>
+        <v>0.8549107015132904</v>
       </c>
       <c r="C6" t="n">
-        <v>38648.400390625</v>
+        <v>10098.802734375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9339772733775052</v>
+        <v>0.8724396018420949</v>
       </c>
       <c r="E6" t="n">
-        <v>38643.63671875</v>
+        <v>10097.47150735294</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8774999976158142</v>
+        <v>0.8856026828289032</v>
       </c>
       <c r="C7" t="n">
-        <v>37910.1328125</v>
+        <v>9817.71533203125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9314772703430869</v>
+        <v>0.8800551470588235</v>
       </c>
       <c r="E7" t="n">
-        <v>37904.32421875</v>
+        <v>9816.58455882353</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8875000178813934</v>
+        <v>0.8588169515132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37179.453125</v>
+        <v>9544.32373046875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9579545422033831</v>
+        <v>0.8765099784907173</v>
       </c>
       <c r="E8" t="n">
-        <v>37174.90802556818</v>
+        <v>9542.876953125</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8900000154972076</v>
+        <v>0.8755580484867096</v>
       </c>
       <c r="C9" t="n">
-        <v>36463.689453125</v>
+        <v>9277.2333984375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9607954567128961</v>
+        <v>0.8816307783126831</v>
       </c>
       <c r="E9" t="n">
-        <v>36459.28657670454</v>
+        <v>9275.71053538603</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8850000202655792</v>
+        <v>0.8766741156578064</v>
       </c>
       <c r="C10" t="n">
-        <v>35759.34765625</v>
+        <v>9016.3525390625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9621590917760675</v>
+        <v>0.9071691176470589</v>
       </c>
       <c r="E10" t="n">
-        <v>35755.71235795454</v>
+        <v>9015.004078584559</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.8761160671710968</v>
       </c>
       <c r="C11" t="n">
-        <v>35067.685546875</v>
+        <v>8761.63037109375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9669318144971674</v>
+        <v>0.9130777295897988</v>
       </c>
       <c r="E11" t="n">
-        <v>35064.43110795454</v>
+        <v>8760.3974609375</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.8822544515132904</v>
       </c>
       <c r="C12" t="n">
-        <v>34388.23046875</v>
+        <v>8513.837890625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9752272800965742</v>
+        <v>0.9277179626857534</v>
       </c>
       <c r="E12" t="n">
-        <v>34385.36576704546</v>
+        <v>8512.648207720587</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.8772321343421936</v>
       </c>
       <c r="C13" t="n">
-        <v>33723.12109375</v>
+        <v>8272.14794921875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9701136404817755</v>
+        <v>0.9369747884133283</v>
       </c>
       <c r="E13" t="n">
-        <v>33718.68892045454</v>
+        <v>8271.032456341913</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.8811383843421936</v>
       </c>
       <c r="C14" t="n">
-        <v>33068.748046875</v>
+        <v>8037.138916015625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.964772722937844</v>
+        <v>0.9241727941176471</v>
       </c>
       <c r="E14" t="n">
-        <v>33064.15625</v>
+        <v>8035.925264246323</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8727678656578064</v>
       </c>
       <c r="C15" t="n">
-        <v>32423.4560546875</v>
+        <v>7808.243896484375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9812500097534873</v>
+        <v>0.9258140746284934</v>
       </c>
       <c r="E15" t="n">
-        <v>32420.81196732954</v>
+        <v>7806.816664751838</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.9017857015132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31792.57421875</v>
+        <v>7584.351806640625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9804545586759393</v>
+        <v>0.9397977941176471</v>
       </c>
       <c r="E16" t="n">
-        <v>31789.79989346591</v>
+        <v>7583.185116038603</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9000000059604645</v>
+        <v>0.8928571343421936</v>
       </c>
       <c r="C17" t="n">
-        <v>31172.63671875</v>
+        <v>7366.660400390625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9846591028300199</v>
+        <v>0.9294905452167287</v>
       </c>
       <c r="E17" t="n">
-        <v>31170.21164772727</v>
+        <v>7365.51212086397</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9000000059604645</v>
+        <v>0.8895089328289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30565.3935546875</v>
+        <v>7154.165283203125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9802272753282026</v>
+        <v>0.9375</v>
       </c>
       <c r="E18" t="n">
-        <v>30562.08718039773</v>
+        <v>7153.249885110294</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8805803656578064</v>
       </c>
       <c r="C19" t="n">
-        <v>29968.1962890625</v>
+        <v>6947.96435546875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9809091036969965</v>
+        <v>0.9430147058823529</v>
       </c>
       <c r="E19" t="n">
-        <v>29965.041015625</v>
+        <v>6946.891946231618</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.8895089328289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29382.1435546875</v>
+        <v>6746.9775390625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9856818264180963</v>
+        <v>0.9402573529411765</v>
       </c>
       <c r="E20" t="n">
-        <v>29378.59818892046</v>
+        <v>6745.820484834559</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.8934151828289032</v>
       </c>
       <c r="C21" t="n">
-        <v>28807.3095703125</v>
+        <v>6551.03125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9757954640821977</v>
+        <v>0.9503019942956812</v>
       </c>
       <c r="E21" t="n">
-        <v>28803.48845880682</v>
+        <v>6550.055348115809</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.8889508843421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28241.4169921875</v>
+        <v>6360.226318359375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9596244762925541</v>
       </c>
       <c r="E22" t="n">
-        <v>28238.24147727273</v>
+        <v>6359.29833984375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.8984375</v>
       </c>
       <c r="C23" t="n">
-        <v>27688.1943359375</v>
+        <v>6174.59033203125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9828409227457914</v>
+        <v>0.9468881312538596</v>
       </c>
       <c r="E23" t="n">
-        <v>27684.13973721591</v>
+        <v>6173.788143382353</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.8850446343421936</v>
       </c>
       <c r="C24" t="n">
-        <v>27142.83203125</v>
+        <v>5994.3203125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9901136430827054</v>
+        <v>0.9359243687461404</v>
       </c>
       <c r="E24" t="n">
-        <v>27139.94087357954</v>
+        <v>5993.354463465073</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8900669515132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26608.3642578125</v>
+        <v>5818.33740234375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9495798314318937</v>
       </c>
       <c r="E25" t="n">
-        <v>26605.89754971591</v>
+        <v>5817.498965992647</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8811383843421936</v>
       </c>
       <c r="C26" t="n">
-        <v>26084.5869140625</v>
+        <v>5647.484619140625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9348739490789526</v>
       </c>
       <c r="E26" t="n">
-        <v>26081.86505681818</v>
+        <v>5646.57022633272</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8844866156578064</v>
       </c>
       <c r="C27" t="n">
-        <v>25570.2470703125</v>
+        <v>5480.866943359375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.9577862409984365</v>
       </c>
       <c r="E27" t="n">
-        <v>25567.57919034091</v>
+        <v>5480.026683134191</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8850446343421936</v>
       </c>
       <c r="C28" t="n">
-        <v>25064.888671875</v>
+        <v>5318.624267578125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9665835079024819</v>
       </c>
       <c r="E28" t="n">
-        <v>25062.79776278409</v>
+        <v>5317.954934512868</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8856026828289032</v>
       </c>
       <c r="C29" t="n">
-        <v>24569.8251953125</v>
+        <v>5160.90478515625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9910227331248197</v>
+        <v>0.9619879196671879</v>
       </c>
       <c r="E29" t="n">
-        <v>24567.45276988636</v>
+        <v>5160.35831227022</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8889508843421936</v>
       </c>
       <c r="C30" t="n">
-        <v>24083.8818359375</v>
+        <v>5007.3828125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9592305667260114</v>
       </c>
       <c r="E30" t="n">
-        <v>24081.35298295454</v>
+        <v>5006.957548253677</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.8973214328289032</v>
       </c>
       <c r="C31" t="n">
-        <v>23606.38671875</v>
+        <v>4858.445556640625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9937500032511625</v>
+        <v>0.9609375</v>
       </c>
       <c r="E31" t="n">
-        <v>23604.32244318182</v>
+        <v>4857.820427389706</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.89453125</v>
       </c>
       <c r="C32" t="n">
-        <v>23139.4755859375</v>
+        <v>4713.301025390625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9542410724303302</v>
       </c>
       <c r="E32" t="n">
-        <v>23136.22549715909</v>
+        <v>4712.732077205882</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.91015625</v>
       </c>
       <c r="C33" t="n">
-        <v>22679.2275390625</v>
+        <v>4571.9150390625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9699317216873169</v>
       </c>
       <c r="E33" t="n">
-        <v>22676.76491477273</v>
+        <v>4571.461253446691</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.90234375</v>
       </c>
       <c r="C34" t="n">
-        <v>22228.01953125</v>
+        <v>4434.761474609375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9640887590015635</v>
       </c>
       <c r="E34" t="n">
-        <v>22225.97230113636</v>
+        <v>4434.207318474265</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.90625</v>
       </c>
       <c r="C35" t="n">
-        <v>21786.3291015625</v>
+        <v>4301.293212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9615283608436584</v>
       </c>
       <c r="E35" t="n">
-        <v>21783.70880681818</v>
+        <v>4300.717945772059</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.9107142984867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21351.80859375</v>
+        <v>4171.297119140625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9749868687461404</v>
       </c>
       <c r="E36" t="n">
-        <v>21349.63352272727</v>
+        <v>4170.819939108456</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="C37" t="n">
-        <v>20926.2080078125</v>
+        <v>4045.310546875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9547006312538596</v>
       </c>
       <c r="E37" t="n">
-        <v>20923.763671875</v>
+        <v>4044.675422219669</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C38" t="n">
-        <v>20507.8291015625</v>
+        <v>3922.324096679688</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.957457984195036</v>
       </c>
       <c r="E38" t="n">
-        <v>20505.82386363636</v>
+        <v>3921.811825022978</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8928571343421936</v>
       </c>
       <c r="C39" t="n">
-        <v>20098.0068359375</v>
+        <v>3802.936157226562</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9898863705721769</v>
+        <v>0.9493828766486224</v>
       </c>
       <c r="E39" t="n">
-        <v>20095.82652698864</v>
+        <v>3802.464499080882</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8800223171710968</v>
       </c>
       <c r="C40" t="n">
-        <v>19695.0224609375</v>
+        <v>3686.980834960938</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9447216391563416</v>
       </c>
       <c r="E40" t="n">
-        <v>19693.41956676136</v>
+        <v>3686.414191750919</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9151785671710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19300.7783203125</v>
+        <v>3573.85498046875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9760372884133283</v>
       </c>
       <c r="E41" t="n">
-        <v>19298.65127840909</v>
+        <v>3573.406336167279</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9068080484867096</v>
       </c>
       <c r="C42" t="n">
-        <v>18913.044921875</v>
+        <v>3464.023681640625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9678308823529411</v>
       </c>
       <c r="E42" t="n">
-        <v>18911.26118607954</v>
+        <v>3463.693244485294</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8844866156578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18532.86328125</v>
+        <v>3357.757202148438</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9258797273916357</v>
       </c>
       <c r="E43" t="n">
-        <v>18531.18572443182</v>
+        <v>3357.277401194853</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8934151828289032</v>
       </c>
       <c r="C44" t="n">
-        <v>18159.43359375</v>
+        <v>3254.061889648438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.941964286215165</v>
       </c>
       <c r="E44" t="n">
-        <v>18158.25692471591</v>
+        <v>3253.494212431066</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9017857015132904</v>
       </c>
       <c r="C45" t="n">
-        <v>17794.1328125</v>
+        <v>3153.225952148438</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9278492647058824</v>
       </c>
       <c r="E45" t="n">
-        <v>17792.38849431818</v>
+        <v>3152.842414407169</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.8883928656578064</v>
       </c>
       <c r="C46" t="n">
-        <v>17434.494140625</v>
+        <v>3055.2763671875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9428177510990816</v>
       </c>
       <c r="E46" t="n">
-        <v>17433.3984375</v>
+        <v>3054.801786534927</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.91015625</v>
       </c>
       <c r="C47" t="n">
-        <v>17082.041015625</v>
+        <v>2959.8974609375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.968618697979871</v>
       </c>
       <c r="E47" t="n">
-        <v>17081.16761363636</v>
+        <v>2959.55562097886</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.8973214328289032</v>
       </c>
       <c r="C48" t="n">
-        <v>16736.90625</v>
+        <v>2867.557739257812</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9506959038622239</v>
       </c>
       <c r="E48" t="n">
-        <v>16735.60422585227</v>
+        <v>2867.147963579963</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9056919515132904</v>
       </c>
       <c r="C49" t="n">
-        <v>16397.80078125</v>
+        <v>2777.587036132812</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9942045482722196</v>
+        <v>0.9587710079024819</v>
       </c>
       <c r="E49" t="n">
-        <v>16396.59623579546</v>
+        <v>2777.274313534007</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9146205484867096</v>
       </c>
       <c r="C50" t="n">
-        <v>16064.91455078125</v>
+        <v>2690.215209960938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9690782568034004</v>
       </c>
       <c r="E50" t="n">
-        <v>16063.94398082386</v>
+        <v>2689.906709558823</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,839 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15738.58642578125</v>
+        <v>2605.465087890625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9131433823529411</v>
       </c>
       <c r="E51" t="n">
-        <v>15737.60671164773</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15418.47216796875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15417.45791903409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9074999988079071</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15104.748046875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15103.36967329545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14796.6474609375</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14795.23455255682</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14493.658203125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14492.93208451705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9149999916553497</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14197.37353515625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14196.41716974432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9224999845027924</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13906.15576171875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13905.49254261364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9099999964237213</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13621.048828125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13620.13787286932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9199999868869781</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13341.3662109375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13340.21635298295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.8925000131130219</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13066.5517578125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13065.59978693182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12796.8232421875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12796.24840198864</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9050000011920929</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12532.8115234375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12532.05237926136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12273.36962890625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12272.86212713068</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9025000035762787</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12019.54833984375</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12018.68536931818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11769.91943359375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11769.31596235795</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9199999868869781</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11525.3876953125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11524.78746448864</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9074999988079071</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11285.712890625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11284.89417613636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11050.18994140625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11049.63352272727</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10819.2822265625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10818.90314275568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9275000095367432</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10593.20947265625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10592.59641335227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9099999964237213</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10371.31591796875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9936363697052002</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10370.65411931818</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9124999940395355</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10153.724609375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10153.02379261364</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9124999940395355</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9940.1455078125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9984090924263</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9939.566139914772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9274999797344208</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9730.68798828125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9730.241743607954</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9224999845027924</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9525.50537109375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9910227331248197</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9525.001598011364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9174999892711639</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9324.3349609375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9323.703125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9224999845027924</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9126.828125</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9126.322798295454</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8933.1494140625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8932.776012073864</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.929999977350235</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8743.37158203125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8742.995383522728</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8557.3017578125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9934090971946716</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8556.925248579546</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8374.72265625</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8374.47958096591</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.004854368932038835</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004854368932038835</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01456310679611651</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01456310679611651</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.07281553398058252</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.07281553398058252</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9705882352941176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2766990291262136</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9705882352941176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2766990291262136</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9880068532267277</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8009708737864077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8349514563106796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8592233009708737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9271844660194175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9271844660194175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9854368932038835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9854368932038835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9951456310679612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9951456310679612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9785122786978868</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>2605.24027745864</v>
       </c>
     </row>
   </sheetData>
